--- a/biology/Médecine/Pasteur_(téléfilm)/Pasteur_(téléfilm).xlsx
+++ b/biology/Médecine/Pasteur_(téléfilm)/Pasteur_(téléfilm).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pasteur_(t%C3%A9l%C3%A9film)</t>
+          <t>Pasteur_(téléfilm)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pasteur est un documentaire-fiction français, réalisé par Alain Brunard et diffusé le 29 mars 2011 sur France 2.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pasteur_(t%C3%A9l%C3%A9film)</t>
+          <t>Pasteur_(téléfilm)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nous sommes au XIXe siècle ; quelques pays souffrent de diverses maladies, notamment de la rage en France. Pasteur, un chimiste, va tenter de trouver un remède. Le film ne se limite pas à cette quête d'un vaccin; nous avons des détails sur la vie de Pasteur ainsi que sur ses combats pour démontrer la présence de micro-organismes; de plus ce film nous donne un exemple de démarche scientifique (observation, démonstration et conclusion).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pasteur_(t%C3%A9l%C3%A9film)</t>
+          <t>Pasteur_(téléfilm)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Alain Brunard
 Scénario : Yann Le Gal, Marie-Noëlle Himbert et Alain Brunard
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pasteur_(t%C3%A9l%C3%A9film)</t>
+          <t>Pasteur_(téléfilm)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>André Marcon : Louis Pasteur
 Bruno Todeschini : le docteur Émile Roux, proche collaborateur de Pasteur
